--- a/target/classes/CompilerDictionary/LocatorDictionary/ContactPage.xlsx
+++ b/target/classes/CompilerDictionary/LocatorDictionary/ContactPage.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="ContactPage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Sno</t>
   </si>
@@ -149,6 +149,42 @@
   </si>
   <si>
     <t>ContactPage_ErrorMessage_InvalidPhoneNumber_TextBox_PhoneNumber</t>
+  </si>
+  <si>
+    <t>input#PostalCode</t>
+  </si>
+  <si>
+    <t>ContactPage_TextBox_Zip</t>
+  </si>
+  <si>
+    <t>ContactPage_ErrorMessage_InvalidZip_TextBox_Zip</t>
+  </si>
+  <si>
+    <t>.mktoError #ValidMsgPostalCode</t>
+  </si>
+  <si>
+    <t>select#State</t>
+  </si>
+  <si>
+    <t>ContactPage_Dropdown_Province</t>
+  </si>
+  <si>
+    <t>ContactPage_ErrorMessage_InvalidProvince_Dropdown_Province</t>
+  </si>
+  <si>
+    <t>.mktoError #ValidMsgState</t>
+  </si>
+  <si>
+    <t>ContactPage_CheckBox_PrivacyConsent</t>
+  </si>
+  <si>
+    <t>input#mktoCheckbox_142098_0</t>
+  </si>
+  <si>
+    <t>ContactPage_Label_PrivacyConsent</t>
+  </si>
+  <si>
+    <t>label#LblmktoCheckbox_142098_0</t>
   </si>
 </sst>
 </file>
@@ -192,9 +228,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -750,6 +787,72 @@
         <v>39</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="B2:C12">
     <sortCondition ref="B2"/>
